--- a/SS3 models/LUKA/50_Base/bootstrap/01_tables.xlsx
+++ b/SS3 models/LUKA/50_Base/bootstrap/01_tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -37,522 +37,504 @@
     <t xml:space="preserve">FMORT.CV</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2</t>
+    <t xml:space="preserve">11.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">723.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">728.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">721.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">731.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">723.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">705.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">692.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">692.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">719.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">692.95</t>
   </si>
   <si>
     <t xml:space="preserve">0.21</t>
   </si>
   <si>
-    <t xml:space="preserve">664.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.026</t>
+    <t xml:space="preserve">0.349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">716.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">687.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">697.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">706.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">727.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">719.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">731.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">716.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125</t>
   </si>
   <si>
     <t xml:space="preserve">0.49</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">661.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.050</t>
+    <t xml:space="preserve">729.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">709.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302</t>
   </si>
   <si>
     <t xml:space="preserve">0.48</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">664.72</t>
+    <t xml:space="preserve">720.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">699.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">698.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">697.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">735.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">691.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">704.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">718.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">722.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">714.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">721.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725.35</t>
   </si>
   <si>
     <t xml:space="preserve">0.010</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">664.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">648.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">666.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">644.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">663.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">660.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">656.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">641.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">660.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">649.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">654.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">653.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">658.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">655.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">648.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">661.17</t>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">723.11</t>
   </si>
   <si>
     <t xml:space="preserve">0.064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">647.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">658.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">645.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">650.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">661.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">656.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">661.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">648.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">661.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">654.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">664.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">660.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">666.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">663.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
     <t xml:space="preserve">REF_POINT</t>
   </si>
   <si>
@@ -562,43 +544,43 @@
     <t xml:space="preserve">Fmsy</t>
   </si>
   <si>
-    <t xml:space="preserve">3.439 (3.068 - 3.788)</t>
+    <t xml:space="preserve">1.2 (1.156 - 1.246)</t>
   </si>
   <si>
     <t xml:space="preserve">F2021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.004 (0.002 - 0.011)</t>
+    <t xml:space="preserve">0.004 (0.002 - 0.009)</t>
   </si>
   <si>
     <t xml:space="preserve">F2021/Fmsy</t>
   </si>
   <si>
-    <t xml:space="preserve">0.001 (0.001 - 0.003)</t>
+    <t xml:space="preserve">0.003 (0.001 - 0.008)</t>
   </si>
   <si>
     <t xml:space="preserve">SSBmsst</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03 (3.63 - 7.09)</t>
+    <t xml:space="preserve">1.64 (1.17 - 2.47)</t>
   </si>
   <si>
     <t xml:space="preserve">SSB2021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.13 (12.84 - 23.91)</t>
+    <t xml:space="preserve">12.52 (9.23 - 18.51)</t>
   </si>
   <si>
     <t xml:space="preserve">SSB2021/SSBmsst</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41 (3.53 - 3.37)</t>
+    <t xml:space="preserve">7.62 (7.38 - 7.88)</t>
   </si>
   <si>
     <t xml:space="preserve">MSY</t>
   </si>
   <si>
-    <t xml:space="preserve">10.47 (6.91 - 14.03)</t>
+    <t xml:space="preserve">8.26 (5.36 - 11.15)</t>
   </si>
   <si>
     <t xml:space="preserve">Catch2019-2021</t>
@@ -610,13 +592,13 @@
     <t xml:space="preserve">SPRmsy</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39 (0.38 - 0.4)</t>
+    <t xml:space="preserve">0.34 (0.34 - 0.34)</t>
   </si>
   <si>
     <t xml:space="preserve">SPR2021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99 (0.99 - 1)</t>
+    <t xml:space="preserve">0.99 (0.99 - 0.99)</t>
   </si>
 </sst>
 </file>
@@ -1079,22 +1061,22 @@
         <v>1997</v>
       </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1102,10 +1084,10 @@
         <v>1971</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1117,28 +1099,28 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
         <v>1998</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
       <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1146,22 +1128,22 @@
         <v>1972</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
       </c>
       <c r="H5" t="n">
         <v>1999</v>
@@ -1170,7 +1152,7 @@
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
@@ -1193,40 +1175,40 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
         <v>2000</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1234,22 +1216,22 @@
         <v>1974</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H7" t="n">
         <v>2001</v>
@@ -1261,16 +1243,16 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1278,43 +1260,43 @@
         <v>1975</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H8" t="n">
         <v>2002</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1322,43 +1304,43 @@
         <v>1976</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H9" t="n">
         <v>2003</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1366,43 +1348,43 @@
         <v>1977</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
         <v>2004</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -1410,43 +1392,43 @@
         <v>1978</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H11" t="n">
         <v>2005</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -1454,43 +1436,43 @@
         <v>1979</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" t="n">
         <v>2006</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
       <c r="K12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" t="s">
         <v>87</v>
-      </c>
-      <c r="L12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -1498,22 +1480,22 @@
         <v>1980</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H13" t="n">
         <v>2007</v>
@@ -1522,7 +1504,7 @@
         <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
         <v>95</v>
@@ -1534,7 +1516,7 @@
         <v>96</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1542,31 +1524,31 @@
         <v>1981</v>
       </c>
       <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>99</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
       </c>
       <c r="H14" t="n">
         <v>2008</v>
       </c>
       <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
         <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
       </c>
       <c r="K14" t="s">
         <v>101</v>
@@ -1578,7 +1560,7 @@
         <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -1586,43 +1568,43 @@
         <v>1982</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>105</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>107</v>
       </c>
       <c r="H15" t="n">
         <v>2009</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
         <v>108</v>
       </c>
-      <c r="L15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" t="s">
-        <v>109</v>
-      </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1630,43 +1612,43 @@
         <v>1983</v>
       </c>
       <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>111</v>
       </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>112</v>
-      </c>
-      <c r="G16" t="s">
-        <v>113</v>
       </c>
       <c r="H16" t="n">
         <v>2010</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
         <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s">
         <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="N16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -1674,22 +1656,22 @@
         <v>1984</v>
       </c>
       <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>116</v>
       </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
         <v>117</v>
       </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>118</v>
-      </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" t="n">
         <v>2011</v>
@@ -1698,19 +1680,19 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
         <v>119</v>
       </c>
-      <c r="L17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>120</v>
-      </c>
-      <c r="N17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18">
@@ -1718,40 +1700,40 @@
         <v>1985</v>
       </c>
       <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>122</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
         <v>123</v>
       </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>125</v>
-      </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H18" t="n">
         <v>2012</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="K18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>127</v>
@@ -1762,43 +1744,43 @@
         <v>1986</v>
       </c>
       <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>128</v>
       </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>129</v>
       </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" t="s">
-        <v>131</v>
       </c>
       <c r="H19" t="n">
         <v>2013</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
         <v>132</v>
       </c>
-      <c r="L19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" t="s">
-        <v>133</v>
-      </c>
       <c r="N19" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -1806,43 +1788,43 @@
         <v>1987</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H20" t="n">
         <v>2014</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="J20" t="s">
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s">
         <v>10</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N20" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -1850,43 +1832,43 @@
         <v>1988</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>140</v>
       </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>141</v>
-      </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
         <v>2015</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="J21" t="s">
         <v>8</v>
       </c>
       <c r="K21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" t="s">
         <v>143</v>
-      </c>
-      <c r="L21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" t="s">
-        <v>144</v>
-      </c>
-      <c r="N21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -1894,43 +1876,43 @@
         <v>1989</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="H22" t="n">
         <v>2016</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s">
         <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23">
@@ -1938,43 +1920,43 @@
         <v>1990</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H23" t="n">
         <v>2017</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
         <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s">
         <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -1982,43 +1964,43 @@
         <v>1991</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H24" t="n">
         <v>2018</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s">
         <v>10</v>
       </c>
       <c r="M24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N24" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -2026,43 +2008,43 @@
         <v>1992</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="H25" t="n">
         <v>2019</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K25" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s">
         <v>10</v>
       </c>
       <c r="M25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26">
@@ -2070,43 +2052,43 @@
         <v>1993</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="H26" t="n">
         <v>2020</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J26" t="s">
         <v>10</v>
       </c>
       <c r="K26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s">
         <v>10</v>
       </c>
       <c r="M26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N26" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27">
@@ -2120,37 +2102,37 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H27" t="n">
         <v>2021</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="J27" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L27" t="s">
         <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N27" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -2158,22 +2140,22 @@
         <v>1995</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -2216,90 +2198,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
